--- a/customer_name.xlsx
+++ b/customer_name.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A151"/>
+  <dimension ref="A1:A133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,511 +424,511 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>휴먼텍</t>
+          <t>(사)한국석면안전협회</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>회명산업</t>
+          <t>(재)장애인기업종합지원센터</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>회명워터젠</t>
+          <t>(재)효정국제문화재단</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>에이치엠옵틱스(주)</t>
+          <t>(주)경신</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>황두구조안전(주)</t>
+          <t>(주)구미엘리베이터</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>해암</t>
+          <t>(주)국제기구</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>한양물류</t>
+          <t>(주)농협목우촌</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>한국환경공단</t>
+          <t>(주)뉴메코</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>한국화낙서비스(주)</t>
+          <t>(주)다우개발</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>한국케이시스검정(주)</t>
+          <t>(주)대의엔지니어링</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>한국자산관리공사</t>
+          <t>(주)대일기구</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>한국에스엠씨(주)</t>
+          <t>(주)더존비즈온</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>한국씰마스타</t>
+          <t>(주)모든테크</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>한국수자원조사기술원</t>
+          <t>(주)보람엔지니어링건축사사무소</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>한국미쓰비시전기오토메이션</t>
+          <t>(주)서광하이텍</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>한국미쓰도요</t>
+          <t>(주)신세계푸드</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>프레스토솔루션</t>
+          <t>(주)아이앤텍</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>파킹클라우드</t>
+          <t>(주)아이코닉스</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>티엔알컴퍼니(주)</t>
+          <t>(주)아이티로그인</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>큐비콤(주)</t>
+          <t>(주)아이티트레인</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>쿠팡로지스틱스서비스</t>
+          <t>(주)에코프로</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>코웨이(주)</t>
+          <t>(주)온세메디칼</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>청송노래산풍력발전주식회사</t>
+          <t>(주)우아한형제들</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>지엔에스 와타미 푸드 앤 베버리지 서비스  주식회사</t>
+          <t>(주)윌테크놀러지</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>주식회사티피솔루션</t>
+          <t>(주)유엔에이엔지니어링</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>케이에스엠컴포넌트</t>
+          <t>(주)이새에프앤씨</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>주식회사케이에스엠</t>
+          <t>(주)제너시스</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>주식회사카카오페이</t>
+          <t>(주)제너시스비비큐</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>주식회사지오멕스소프트</t>
+          <t>(주)지앤서비스(지앤네트웍스)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>주식회사지엔에스우쿠야</t>
+          <t>(주)지엔텔</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>주식회사지엔에스올떡</t>
+          <t>(주)지케이엔지니어링</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>주식회사지씨에스</t>
+          <t>(주)케이브이티</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>주식회사와이에이치이코퍼레이션</t>
+          <t>(주)케이비엘러먼트</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>주식회사열림</t>
+          <t>(주)케이씨</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>주식회사에코프로에이치엔</t>
+          <t>(주)케이씨에이</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>주식회사에코프로비엠</t>
+          <t>(주)케이씨엠티(KCMT)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>주식회사 에이치와이인터내셔널</t>
+          <t>(주)케이지엔지니어링종합건축사사무소</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>주식회사에스제이</t>
+          <t>(주)클콩</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>주식회사애큐온저축은행</t>
+          <t>(주)테일러팜스</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>주식회사아름다운</t>
+          <t>(주)하나금융티아이</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>주식회사씨케이지피</t>
+          <t>(주)하이네켄코리아</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>주식회사씨젠</t>
+          <t>(주)한국뷰로베리타스</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>주식회사씨오</t>
+          <t>(주)한국전자금융</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>주식회사서광메디케어</t>
+          <t>(주)흥국에프엔비</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>주식회사샤프에비에이션케이</t>
+          <t>BP코리아</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>주식회사샤인하우징</t>
+          <t>SK이노베이션계열</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>주식회사바로고</t>
+          <t>SK케미칼</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>주식회사리노셈</t>
+          <t>SK하이이엔지</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>주식회사레인보우로보틱스</t>
+          <t>ksc산업(주)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>주식회사나노엑스코리아</t>
+          <t>깨끗한나라(주)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>주식회사광스틸건설</t>
+          <t>넥센타이어</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>(주)광스틸</t>
+          <t>다인정공</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>(주)뉴메코</t>
+          <t>대한송유관공사</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>(주)구미엘리베이터</t>
+          <t>동국시스템즈(주)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>정보와기술서비스(주)</t>
+          <t>락앤락</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>정보와기술(주)</t>
+          <t>마쉬코리아</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>정도산업</t>
+          <t>만트럭버스코리아(주)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>전기통신소방안전공사(주)</t>
+          <t>메인터넌스파트너스</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>재경가구산업(주)</t>
+          <t>부산정관에너지</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>유한회사 한결렌트카</t>
+          <t>뷰로베리타스(영업소)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>유안타증권주식회사</t>
+          <t>뷰로베리타스솔루션즈마린앤오프쇼어리미티드</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>유비스</t>
+          <t>상우정공(주)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>유모스트</t>
+          <t>샘표식품</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>우리와주식회사</t>
+          <t>서울약사신용협동조합</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>올클린환경</t>
+          <t>세방</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>예스에너텍</t>
+          <t>세방전지(주)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>엠플러스자산운용(주)</t>
+          <t>신도산업</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>엠에이치의원</t>
+          <t>씨피엔터테인먼트 주식회사</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>에이치케이지앤텍</t>
+          <t>아라이엔씨</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>에이치시티</t>
+          <t>아이엠아이크리티컬엔지니어링코리아</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>에스케이피유코어주식회사</t>
+          <t>아이피지포토닉스코리아(주)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>에스케이피아이씨글로벌(주)</t>
+          <t>앤에이치시주식회사</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>에스케이에코플랜트(주)</t>
+          <t>에스디엔주식회사</t>
         </is>
       </c>
     </row>
@@ -942,539 +942,413 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>에스디엔주식회사</t>
+          <t>에스케이에코플랜트(주)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>앤에이치시주식회사</t>
+          <t>에스케이피아이씨글로벌(주)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>아이피지포토닉스코리아(주)</t>
+          <t>에스케이피유코어주식회사</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>아이엠아이크리티컬엔지니어링코리아</t>
+          <t>에이치시티</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>아라이엔씨</t>
+          <t>에이치케이지앤텍</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>신도산업</t>
+          <t>엠에이치의원</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>씨피엔터테인먼트 주식회사</t>
+          <t>엠플러스자산운용(주)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>세방전지(주)</t>
+          <t>예스에너텍</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>세방</t>
+          <t>올클린환경</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>서울약사신용협동조합</t>
+          <t>우리와주식회사</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>샘표식품</t>
+          <t>유모스트</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>상우정공(주)</t>
+          <t>유비스</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>뷰로베리타스(영업소)</t>
+          <t>유안타증권주식회사</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>뷰로베리타스솔루션즈마린앤오프쇼어리미티드</t>
+          <t>재경가구산업(주)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>부산정관에너지</t>
+          <t>전기통신소방안전공사(주)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>메인터넌스파트너스</t>
+          <t>정보와기술(주)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>만트럭버스코리아(주)</t>
+          <t>정보와기술서비스(주)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>마쉬코리아</t>
+          <t>주식회사광스틸건설</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>락앤락</t>
+          <t>주식회사나노엑스코리아</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>동국시스템즈(주)</t>
+          <t>주식회사레인보우로보틱스</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>대한송유관공사</t>
+          <t>주식회사리노셈</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>다인정공</t>
+          <t>주식회사바로고</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>넥센타이어</t>
+          <t>주식회사샤인하우징</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>깨끗한나라(주)</t>
+          <t>주식회사샤프에비에이션케이</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SK하이이엔지</t>
+          <t>주식회사서광메디케어</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SK플라즈마 주식회사</t>
+          <t>주식회사씨오</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SK케미칼 LS BIZ</t>
+          <t>주식회사씨젠</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SK케미칼</t>
+          <t>주식회사씨케이지피</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SK이노베이션계열</t>
+          <t>주식회사아름다운</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ksc산업(주)</t>
+          <t>주식회사애큐온저축은행</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BP코리아</t>
+          <t>주식회사에스제이</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>(주)흥국에프엔비</t>
+          <t>주식회사에코프로비엠</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>(주)화진교역</t>
+          <t>주식회사에코프로에이치엔</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>(주)한국전자금융</t>
+          <t>주식회사열림</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>(주)한국뷰로베리타스</t>
+          <t>주식회사지씨에스</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>(주)하이네켄코리아</t>
+          <t>주식회사지엔에스우쿠야</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>(주)하나금융티아이</t>
+          <t>주식회사지오멕스소프트</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>(주)테일러팜스</t>
+          <t>주식회사카카오페이</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>(주)클콩</t>
+          <t>주식회사티피솔루션</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>(주)케이지엔지니어링종합건축사사무소</t>
+          <t>청송노래산풍력발전주식회사</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>(주)케이씨엠티(KCMT)</t>
+          <t>코웨이(주)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>(주)케이씨에이</t>
+          <t>쿠팡로지스틱스서비스</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>(주)케이씨</t>
+          <t>큐비콤(주)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>(주)케이비엘러먼트</t>
+          <t>티엔알컴퍼니(주)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>(주)케이브이티</t>
+          <t>파킹클라우드</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>(주)지케이엔지니어링</t>
+          <t>프레스토솔루션</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>(주)지엔텔</t>
+          <t>한국미쓰도요</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>(주)지앤서비스(지앤네트웍스)</t>
+          <t>한국미쓰비시전기오토메이션</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>(주)지앤네트웍스</t>
+          <t>한국수자원조사기술원</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>(주)제너시스비비큐</t>
+          <t>한국씰마스타</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>(주)제너시스</t>
+          <t>한국에스엠씨(주)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>(주)이새에프앤씨</t>
+          <t>한국자산관리공사</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>(주)유엔에이엔지니어링</t>
+          <t>한국케이시스검정(주)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>(주)윌테크놀러지</t>
+          <t>한국화낙서비스(주)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>(주)우아한형제들</t>
+          <t>한국환경공단</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>(주)온세메디칼</t>
+          <t>해암</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>(주)에코프로</t>
+          <t>황두구조안전(주)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>(주)에스엠컬처앤콘텐츠</t>
+          <t>회명산업</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>(주)아이티트레인</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>(주)아이티로그인</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>(주)아이코닉스</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>(주)아이앤텍</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>(주)신세계푸드</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>(주)서광하이텍</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>(주)보람엔지니어링건축사사무소</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>(주)모든테크</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>(주)더존비즈온</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>(주)대일기구</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>(주)대의엔지니어링</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>(주)다우개발</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>(주)농협목우촌</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>(주)국제기구</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>(주)경신</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>(재)효정국제문화재단</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>(재)장애인기업종합지원센터</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>그린유통</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>(사)한국석면안전협회</t>
+          <t>휴먼텍</t>
         </is>
       </c>
     </row>

--- a/customer_name.xlsx
+++ b/customer_name.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A133"/>
+  <dimension ref="A1:A151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,901 +452,1027 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>(주)구미엘리베이터</t>
+          <t>(주)광스틸</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>(주)국제기구</t>
+          <t>(주)구미엘리베이터</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>(주)농협목우촌</t>
+          <t>(주)국제기구</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>(주)뉴메코</t>
+          <t>(주)농협목우촌</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>(주)다우개발</t>
+          <t>(주)뉴메코</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>(주)대의엔지니어링</t>
+          <t>(주)다우개발</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>(주)대일기구</t>
+          <t>(주)대의엔지니어링</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>(주)더존비즈온</t>
+          <t>(주)대일기구</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>(주)모든테크</t>
+          <t>(주)더존비즈온</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>(주)보람엔지니어링건축사사무소</t>
+          <t>(주)모든테크</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>(주)서광하이텍</t>
+          <t>(주)보람엔지니어링건축사사무소</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>(주)신세계푸드</t>
+          <t>(주)서광하이텍</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>(주)아이앤텍</t>
+          <t>(주)신세계푸드</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>(주)아이코닉스</t>
+          <t>(주)아이앤텍</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>(주)아이티로그인</t>
+          <t>(주)아이코닉스</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>(주)아이티트레인</t>
+          <t>(주)아이티로그인</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>(주)에코프로</t>
+          <t>(주)아이티트레인</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>(주)온세메디칼</t>
+          <t>(주)에스엠컬처앤콘텐츠</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>(주)우아한형제들</t>
+          <t>(주)에코프로</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>(주)윌테크놀러지</t>
+          <t>(주)온세메디칼</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>(주)유엔에이엔지니어링</t>
+          <t>(주)우아한형제들</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>(주)이새에프앤씨</t>
+          <t>(주)윌테크놀러지</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>(주)제너시스</t>
+          <t>(주)유엔에이엔지니어링</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>(주)제너시스비비큐</t>
+          <t>(주)이새에프앤씨</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>(주)지앤서비스(지앤네트웍스)</t>
+          <t>(주)제너시스</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>(주)지엔텔</t>
+          <t>(주)제너시스비비큐</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>(주)지케이엔지니어링</t>
+          <t>(주)지앤네트웍스</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>(주)케이브이티</t>
+          <t>(주)지앤서비스(지앤네트웍스)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>(주)케이비엘러먼트</t>
+          <t>(주)지엔텔</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>(주)케이씨</t>
+          <t>(주)지케이엔지니어링</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>(주)케이씨에이</t>
+          <t>(주)케이브이티</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>(주)케이씨엠티(KCMT)</t>
+          <t>(주)케이비엘러먼트</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>(주)케이지엔지니어링종합건축사사무소</t>
+          <t>(주)케이씨</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>(주)클콩</t>
+          <t>(주)케이씨에이</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>(주)테일러팜스</t>
+          <t>(주)케이씨엠티(KCMT)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>(주)하나금융티아이</t>
+          <t>(주)케이지엔지니어링종합건축사사무소</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>(주)하이네켄코리아</t>
+          <t>(주)클콩</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>(주)한국뷰로베리타스</t>
+          <t>(주)테일러팜스</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>(주)한국전자금융</t>
+          <t>(주)하나금융티아이</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>(주)흥국에프엔비</t>
+          <t>(주)하이네켄코리아</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BP코리아</t>
+          <t>(주)한국뷰로베리타스</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SK이노베이션계열</t>
+          <t>(주)한국전자금융</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SK케미칼</t>
+          <t>(주)화진교역</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SK하이이엔지</t>
+          <t>(주)흥국에프엔비</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ksc산업(주)</t>
+          <t>BP코리아</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>깨끗한나라(주)</t>
+          <t>SK이노베이션계열</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>넥센타이어</t>
+          <t>SK케미칼</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>다인정공</t>
+          <t>SK케미칼LSBIZ</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>대한송유관공사</t>
+          <t>SK플라즈마주식회사</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>동국시스템즈(주)</t>
+          <t>SK하이이엔지</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>락앤락</t>
+          <t>ksc산업(주)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>마쉬코리아</t>
+          <t>그린유통</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>만트럭버스코리아(주)</t>
+          <t>깨끗한나라(주)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>메인터넌스파트너스</t>
+          <t>넥센타이어</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>부산정관에너지</t>
+          <t>다인정공</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>뷰로베리타스(영업소)</t>
+          <t>대한송유관공사</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>뷰로베리타스솔루션즈마린앤오프쇼어리미티드</t>
+          <t>동국시스템즈(주)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>상우정공(주)</t>
+          <t>락앤락</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>샘표식품</t>
+          <t>마쉬코리아</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>서울약사신용협동조합</t>
+          <t>만트럭버스코리아(주)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>세방</t>
+          <t>메인터넌스파트너스</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>세방전지(주)</t>
+          <t>부산정관에너지</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>신도산업</t>
+          <t>뷰로베리타스(영업소)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>씨피엔터테인먼트 주식회사</t>
+          <t>뷰로베리타스솔루션즈마린앤오프쇼어리미티드</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>아라이엔씨</t>
+          <t>상우정공(주)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>아이엠아이크리티컬엔지니어링코리아</t>
+          <t>샘표식품</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>아이피지포토닉스코리아(주)</t>
+          <t>서울약사신용협동조합</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>앤에이치시주식회사</t>
+          <t>세방</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>에스디엔주식회사</t>
+          <t>세방전지(주)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>에스케이에코엔지니어링(주)</t>
+          <t>신도산업</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>에스케이에코플랜트(주)</t>
+          <t>씨피엔터테인먼트주식회사</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>에스케이피아이씨글로벌(주)</t>
+          <t>아라이엔씨</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>에스케이피유코어주식회사</t>
+          <t>아이엠아이크리티컬엔지니어링코리아</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>에이치시티</t>
+          <t>아이피지포토닉스코리아(주)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>에이치케이지앤텍</t>
+          <t>앤에이치시주식회사</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>엠에이치의원</t>
+          <t>에스디엔주식회사</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>엠플러스자산운용(주)</t>
+          <t>에스케이에코엔지니어링(주)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>예스에너텍</t>
+          <t>에스케이에코플랜트(주)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>올클린환경</t>
+          <t>에스케이피아이씨글로벌(주)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>우리와주식회사</t>
+          <t>에스케이피유코어주식회사</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>유모스트</t>
+          <t>에이치시티</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>유비스</t>
+          <t>에이치엠옵틱스(주)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>유안타증권주식회사</t>
+          <t>에이치케이지앤텍</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>재경가구산업(주)</t>
+          <t>엠에이치의원</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>전기통신소방안전공사(주)</t>
+          <t>엠플러스자산운용(주)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>정보와기술(주)</t>
+          <t>예스에너텍</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>정보와기술서비스(주)</t>
+          <t>올클린환경</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>주식회사광스틸건설</t>
+          <t>우리와주식회사</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>주식회사나노엑스코리아</t>
+          <t>유모스트</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>주식회사레인보우로보틱스</t>
+          <t>유비스</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>주식회사리노셈</t>
+          <t>유안타증권주식회사</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>주식회사바로고</t>
+          <t>유한회사한결렌트카</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>주식회사샤인하우징</t>
+          <t>재경가구산업(주)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>주식회사샤프에비에이션케이</t>
+          <t>전기통신소방안전공사(주)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>주식회사서광메디케어</t>
+          <t>정도산업</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>주식회사씨오</t>
+          <t>정보와기술(주)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>주식회사씨젠</t>
+          <t>정보와기술서비스(주)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>주식회사씨케이지피</t>
+          <t>주식회사광스틸건설</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>주식회사아름다운</t>
+          <t>주식회사나노엑스코리아</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>주식회사애큐온저축은행</t>
+          <t>주식회사레인보우로보틱스</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>주식회사에스제이</t>
+          <t>주식회사리노셈</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>주식회사에코프로비엠</t>
+          <t>주식회사바로고</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>주식회사에코프로에이치엔</t>
+          <t>주식회사샤인하우징</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>주식회사열림</t>
+          <t>주식회사샤프에비에이션케이</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>주식회사지씨에스</t>
+          <t>주식회사서광메디케어</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>주식회사지엔에스우쿠야</t>
+          <t>주식회사씨오</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>주식회사지오멕스소프트</t>
+          <t>주식회사씨젠</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>주식회사카카오페이</t>
+          <t>주식회사씨케이지피</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>주식회사티피솔루션</t>
+          <t>주식회사아름다운</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>청송노래산풍력발전주식회사</t>
+          <t>주식회사애큐온저축은행</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>코웨이(주)</t>
+          <t>주식회사에스제이</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>쿠팡로지스틱스서비스</t>
+          <t>주식회사에이치와이인터내셔널</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>큐비콤(주)</t>
+          <t>주식회사에코프로비엠</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>티엔알컴퍼니(주)</t>
+          <t>주식회사에코프로에이치엔</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>파킹클라우드</t>
+          <t>주식회사열림</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>프레스토솔루션</t>
+          <t>주식회사와이에이치이코퍼레이션</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>한국미쓰도요</t>
+          <t>주식회사지씨에스</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>한국미쓰비시전기오토메이션</t>
+          <t>주식회사지엔에스올떡</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>한국수자원조사기술원</t>
+          <t>주식회사지엔에스우쿠야</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>한국씰마스타</t>
+          <t>주식회사지오멕스소프트</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>한국에스엠씨(주)</t>
+          <t>주식회사카카오페이</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>한국자산관리공사</t>
+          <t>주식회사케이에스엠</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>한국케이시스검정(주)</t>
+          <t>주식회사티피솔루션</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>한국화낙서비스(주)</t>
+          <t>지엔에스와타미푸드앤베버리지서비스주식회사</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>한국환경공단</t>
+          <t>청송노래산풍력발전주식회사</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>해암</t>
+          <t>케이에스엠컴포넌트</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>황두구조안전(주)</t>
+          <t>코웨이(주)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>회명산업</t>
+          <t>쿠팡로지스틱스서비스</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
+        <is>
+          <t>큐비콤(주)</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>티엔알컴퍼니(주)</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>파킹클라우드</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>프레스토솔루션</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>한국미쓰도요</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>한국미쓰비시전기오토메이션</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>한국수자원조사기술원</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>한국씰마스타</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>한국에스엠씨(주)</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>한국자산관리공사</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>한국케이시스검정(주)</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>한국화낙서비스(주)</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>한국환경공단</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>한양물류</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>해암</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>황두구조안전(주)</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>회명산업</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>회명워터젠</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
         <is>
           <t>휴먼텍</t>
         </is>

--- a/customer_name.xlsx
+++ b/customer_name.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="고객사목록" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="고객사목록" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A151"/>
+  <dimension ref="A1:A153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,970 +515,984 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>(주)모든테크</t>
+          <t>(주)두올</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>(주)보람엔지니어링건축사사무소</t>
+          <t>(주)모든테크</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>(주)서광하이텍</t>
+          <t>(주)보람엔지니어링건축사사무소</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>(주)신세계푸드</t>
+          <t>(주)서광하이텍</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>(주)아이앤텍</t>
+          <t>(주)신세계푸드</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>(주)아이코닉스</t>
+          <t>(주)아이앤텍</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>(주)아이티로그인</t>
+          <t>(주)아이코닉스</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>(주)아이티트레인</t>
+          <t>(주)아이티로그인</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>(주)에스엠컬처앤콘텐츠</t>
+          <t>(주)아이티트레인</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>(주)에코프로</t>
+          <t>(주)에스엠컬처앤콘텐츠</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>(주)온세메디칼</t>
+          <t>(주)에코프로</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>(주)우아한형제들</t>
+          <t>(주)온세메디칼</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>(주)윌테크놀러지</t>
+          <t>(주)우아한형제들</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>(주)유엔에이엔지니어링</t>
+          <t>(주)윌테크놀러지</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>(주)이새에프앤씨</t>
+          <t>(주)유엔에이엔지니어링</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>(주)제너시스</t>
+          <t>(주)이새에프앤씨</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>(주)제너시스비비큐</t>
+          <t>(주)제너시스</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>(주)지앤네트웍스</t>
+          <t>(주)제너시스비비큐</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>(주)지앤서비스(지앤네트웍스)</t>
+          <t>(주)지앤네트웍스</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>(주)지엔텔</t>
+          <t>(주)지앤서비스(지앤네트웍스)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>(주)지케이엔지니어링</t>
+          <t>(주)지엔텔</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>(주)케이브이티</t>
+          <t>(주)지케이엔지니어링</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>(주)케이비엘러먼트</t>
+          <t>(주)케이브이티</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>(주)케이씨</t>
+          <t>(주)케이비엘러먼트</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>(주)케이씨에이</t>
+          <t>(주)케이씨</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>(주)케이씨엠티(KCMT)</t>
+          <t>(주)케이씨에이</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>(주)케이지엔지니어링종합건축사사무소</t>
+          <t>(주)케이씨엠티(KCMT)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>(주)클콩</t>
+          <t>(주)케이지엔지니어링종합건축사사무소</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>(주)테일러팜스</t>
+          <t>(주)클콩</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>(주)하나금융티아이</t>
+          <t>(주)테일러팜스</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>(주)하이네켄코리아</t>
+          <t>(주)하나금융티아이</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>(주)한국뷰로베리타스</t>
+          <t>(주)하이네켄코리아</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>(주)한국전자금융</t>
+          <t>(주)한국뷰로베리타스</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>(주)화진교역</t>
+          <t>(주)한국전자금융</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>(주)흥국에프엔비</t>
+          <t>(주)화진교역</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BP코리아</t>
+          <t>(주)흥국에프엔비</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SK이노베이션계열</t>
+          <t>BP코리아</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SK케미칼</t>
+          <t>SK이노베이션계열</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SK케미칼LSBIZ</t>
+          <t>SK케미칼</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SK플라즈마주식회사</t>
+          <t>SK케미칼LSBIZ</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SK하이이엔지</t>
+          <t>SK플라즈마주식회사</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ksc산업(주)</t>
+          <t>SK하이이엔지</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>그린유통</t>
+          <t>ksc산업(주)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>깨끗한나라(주)</t>
+          <t>그린유통</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>넥센타이어</t>
+          <t>깨끗한나라(주)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>다인정공</t>
+          <t>넥센타이어</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>대한송유관공사</t>
+          <t>다인정공</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>동국시스템즈(주)</t>
+          <t>대한송유관공사</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>락앤락</t>
+          <t>동국시스템즈(주)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>마쉬코리아</t>
+          <t>락앤락</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>만트럭버스코리아(주)</t>
+          <t>마쉬코리아</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>메인터넌스파트너스</t>
+          <t>만트럭버스코리아(주)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>부산정관에너지</t>
+          <t>메인터넌스파트너스</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>뷰로베리타스(영업소)</t>
+          <t>부산정관에너지</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>뷰로베리타스솔루션즈마린앤오프쇼어리미티드</t>
+          <t>뷰로베리타스(영업소)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>상우정공(주)</t>
+          <t>뷰로베리타스솔루션즈마린앤오프쇼어리미티드</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>샘표식품</t>
+          <t>상우정공(주)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>서울약사신용협동조합</t>
+          <t>샘표식품</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>세방</t>
+          <t>서울약사신용협동조합</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>세방전지(주)</t>
+          <t>세방</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>신도산업</t>
+          <t>세방전지(주)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>씨피엔터테인먼트주식회사</t>
+          <t>신도산업</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>아라이엔씨</t>
+          <t>씨피엔터테인먼트주식회사</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>아이엠아이크리티컬엔지니어링코리아</t>
+          <t>아라이엔씨</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>아이피지포토닉스코리아(주)</t>
+          <t>아이엠아이크리티컬엔지니어링코리아</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>앤에이치시주식회사</t>
+          <t>아이피지포토닉스코리아(주)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>에스디엔주식회사</t>
+          <t>앤에이치시주식회사</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>에스케이에코엔지니어링(주)</t>
+          <t>에스디엔주식회사</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>에스케이에코플랜트(주)</t>
+          <t>에스케이마이크로웍스주식회사</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>에스케이피아이씨글로벌(주)</t>
+          <t>에스케이에코엔지니어링(주)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>에스케이피유코어주식회사</t>
+          <t>에스케이에코플랜트(주)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>에이치시티</t>
+          <t>에스케이피아이씨글로벌(주)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>에이치엠옵틱스(주)</t>
+          <t>에스케이피유코어주식회사</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>에이치케이지앤텍</t>
+          <t>에이치시티</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>엠에이치의원</t>
+          <t>에이치엠옵틱스(주)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>엠플러스자산운용(주)</t>
+          <t>에이치케이지앤텍</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>예스에너텍</t>
+          <t>엠에이치의원</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>올클린환경</t>
+          <t>엠플러스자산운용(주)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>우리와주식회사</t>
+          <t>예스에너텍</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>유모스트</t>
+          <t>올클린환경</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>유비스</t>
+          <t>우리와주식회사</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>유안타증권주식회사</t>
+          <t>유모스트</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>유한회사한결렌트카</t>
+          <t>유비스</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>재경가구산업(주)</t>
+          <t>유안타증권주식회사</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>전기통신소방안전공사(주)</t>
+          <t>유한회사한결렌트카</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>정도산업</t>
+          <t>재경가구산업(주)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>정보와기술(주)</t>
+          <t>전기통신소방안전공사(주)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>정보와기술서비스(주)</t>
+          <t>정도산업</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>주식회사광스틸건설</t>
+          <t>정보와기술(주)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>주식회사나노엑스코리아</t>
+          <t>정보와기술서비스(주)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>주식회사레인보우로보틱스</t>
+          <t>주식회사광스틸건설</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>주식회사리노셈</t>
+          <t>주식회사나노엑스코리아</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>주식회사바로고</t>
+          <t>주식회사레인보우로보틱스</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>주식회사샤인하우징</t>
+          <t>주식회사리노셈</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>주식회사샤프에비에이션케이</t>
+          <t>주식회사바로고</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>주식회사서광메디케어</t>
+          <t>주식회사샤인하우징</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>주식회사씨오</t>
+          <t>주식회사샤프에비에이션케이</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>주식회사씨젠</t>
+          <t>주식회사서광메디케어</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>주식회사씨케이지피</t>
+          <t>주식회사씨오</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>주식회사아름다운</t>
+          <t>주식회사씨젠</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>주식회사애큐온저축은행</t>
+          <t>주식회사씨케이지피</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>주식회사에스제이</t>
+          <t>주식회사아름다운</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>주식회사에이치와이인터내셔널</t>
+          <t>주식회사애큐온저축은행</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>주식회사에코프로비엠</t>
+          <t>주식회사에스제이</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>주식회사에코프로에이치엔</t>
+          <t>주식회사에이치와이인터내셔널</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>주식회사열림</t>
+          <t>주식회사에코프로비엠</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>주식회사와이에이치이코퍼레이션</t>
+          <t>주식회사에코프로에이치엔</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>주식회사지씨에스</t>
+          <t>주식회사열림</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>주식회사지엔에스올떡</t>
+          <t>주식회사와이에이치이코퍼레이션</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>주식회사지엔에스우쿠야</t>
+          <t>주식회사지씨에스</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>주식회사지오멕스소프트</t>
+          <t>주식회사지엔에스올떡</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>주식회사카카오페이</t>
+          <t>주식회사지엔에스우쿠야</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>주식회사케이에스엠</t>
+          <t>주식회사지오멕스소프트</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>주식회사티피솔루션</t>
+          <t>주식회사카카오페이</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>지엔에스와타미푸드앤베버리지서비스주식회사</t>
+          <t>주식회사케이에스엠</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>청송노래산풍력발전주식회사</t>
+          <t>주식회사티피솔루션</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>케이에스엠컴포넌트</t>
+          <t>지엔에스와타미푸드앤베버리지서비스주식회사</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>코웨이(주)</t>
+          <t>청송노래산풍력발전주식회사</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>쿠팡로지스틱스서비스</t>
+          <t>케이에스엠컴포넌트</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>큐비콤(주)</t>
+          <t>코웨이(주)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>티엔알컴퍼니(주)</t>
+          <t>쿠팡로지스틱스서비스</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>파킹클라우드</t>
+          <t>큐비콤(주)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>프레스토솔루션</t>
+          <t>티엔알컴퍼니(주)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>한국미쓰도요</t>
+          <t>파킹클라우드</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>한국미쓰비시전기오토메이션</t>
+          <t>프레스토솔루션</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>한국수자원조사기술원</t>
+          <t>한국미쓰도요</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>한국씰마스타</t>
+          <t>한국미쓰비시전기오토메이션</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>한국에스엠씨(주)</t>
+          <t>한국수자원조사기술원</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>한국자산관리공사</t>
+          <t>한국씰마스타</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>한국케이시스검정(주)</t>
+          <t>한국에스엠씨(주)</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>한국화낙서비스(주)</t>
+          <t>한국자산관리공사</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>한국환경공단</t>
+          <t>한국케이시스검정(주)</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>한양물류</t>
+          <t>한국화낙서비스(주)</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>해암</t>
+          <t>한국환경공단</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>황두구조안전(주)</t>
+          <t>한양물류</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>회명산업</t>
+          <t>해암</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>회명워터젠</t>
+          <t>황두구조안전(주)</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
+          <t>회명산업</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>회명워터젠</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
           <t>휴먼텍</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/customer_name.xlsx
+++ b/customer_name.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A153"/>
+  <dimension ref="A1:A157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -774,91 +774,91 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SK이노베이션계열</t>
+          <t>SKC</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SK케미칼</t>
+          <t>SK이노베이션계열</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SK케미칼LSBIZ</t>
+          <t>SK케미칼</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SK플라즈마주식회사</t>
+          <t>SK케미칼LSBIZ</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SK하이이엔지</t>
+          <t>SK플라즈마주식회사</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ksc산업(주)</t>
+          <t>SK하이이엔지</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>그린유통</t>
+          <t>ksc산업(주)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>깨끗한나라(주)</t>
+          <t>그린유통</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>넥센타이어</t>
+          <t>깨끗한나라(주)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>다인정공</t>
+          <t>넥센타이어</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>대한송유관공사</t>
+          <t>다인정공</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>동국시스템즈(주)</t>
+          <t>대한송유관공사</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>락앤락</t>
+          <t>동국시스템즈(주)</t>
         </is>
       </c>
     </row>
@@ -956,537 +956,565 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>아라이엔씨</t>
+          <t>씨피엘비주식회사</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>아이엠아이크리티컬엔지니어링코리아</t>
+          <t>아라이엔씨</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>아이피지포토닉스코리아(주)</t>
+          <t>아이엠아이크리티컬엔지니어링코리아</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>앤에이치시주식회사</t>
+          <t>아이피지포토닉스코리아(주)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>에스디엔주식회사</t>
+          <t>앤에이치시주식회사</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>에스케이마이크로웍스주식회사</t>
+          <t>에스디엔주식회사</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>에스케이에코엔지니어링(주)</t>
+          <t>에스케이넥실리스주식회사</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>에스케이에코플랜트(주)</t>
+          <t>에스케이마이크로웍스주식회사</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>에스케이피아이씨글로벌(주)</t>
+          <t>에스케이에코엔지니어링(주)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>에스케이피유코어주식회사</t>
+          <t>에스케이에코플랜트(주)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>에이치시티</t>
+          <t>에스케이엔펄스주식회사</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>에이치엠옵틱스(주)</t>
+          <t>에스케이피아이씨글로벌(주)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>에이치케이지앤텍</t>
+          <t>에스케이피유코어주식회사</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>엠에이치의원</t>
+          <t>에이치시티</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>엠플러스자산운용(주)</t>
+          <t>에이치엠옵틱스(주)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>예스에너텍</t>
+          <t>에이치케이지앤텍</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>올클린환경</t>
+          <t>엠에이치의원</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>우리와주식회사</t>
+          <t>엠플러스자산운용(주)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>유모스트</t>
+          <t>올클린환경</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>유비스</t>
+          <t>우리와주식회사</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>유안타증권주식회사</t>
+          <t>유모스트</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>유한회사한결렌트카</t>
+          <t>유비스</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>재경가구산업(주)</t>
+          <t>유안타증권주식회사</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>전기통신소방안전공사(주)</t>
+          <t>유한회사한결렌트카</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>정도산업</t>
+          <t>재경가구산업(주)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>정보와기술(주)</t>
+          <t>전기통신소방안전공사(주)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>정보와기술서비스(주)</t>
+          <t>정도산업</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>주식회사광스틸건설</t>
+          <t>정보와기술(주)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>주식회사나노엑스코리아</t>
+          <t>정보와기술서비스(주)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>주식회사레인보우로보틱스</t>
+          <t>주식회사광스틸건설</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>주식회사리노셈</t>
+          <t>주식회사나노엑스코리아</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>주식회사바로고</t>
+          <t>주식회사락앤락</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>주식회사샤인하우징</t>
+          <t>주식회사레인보우로보틱스</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>주식회사샤프에비에이션케이</t>
+          <t>주식회사리노셈</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>주식회사서광메디케어</t>
+          <t>주식회사바로고</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>주식회사씨오</t>
+          <t>주식회사샤인하우징</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>주식회사씨젠</t>
+          <t>주식회사샤프에비에이션케이</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>주식회사씨케이지피</t>
+          <t>주식회사서광메디케어</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>주식회사아름다운</t>
+          <t>주식회사씨오</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>주식회사애큐온저축은행</t>
+          <t>주식회사씨젠</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>주식회사에스제이</t>
+          <t>주식회사씨케이지피</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>주식회사에이치와이인터내셔널</t>
+          <t>주식회사아름다운</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>주식회사에코프로비엠</t>
+          <t>주식회사애큐온저축은행</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>주식회사에코프로에이치엔</t>
+          <t>주식회사에스제이</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>주식회사열림</t>
+          <t>주식회사에이치와이인터내셔널</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>주식회사와이에이치이코퍼레이션</t>
+          <t>주식회사에코프로비엠</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>주식회사지씨에스</t>
+          <t>주식회사에코프로에이치엔</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>주식회사지엔에스올떡</t>
+          <t>주식회사열림</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>주식회사지엔에스우쿠야</t>
+          <t>주식회사예스에너텍</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>주식회사지오멕스소프트</t>
+          <t>주식회사와이에이치이코퍼레이션</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>주식회사카카오페이</t>
+          <t>주식회사지씨에스</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>주식회사케이에스엠</t>
+          <t>주식회사지엔에스올떡</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>주식회사티피솔루션</t>
+          <t>주식회사지엔에스우쿠야</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>지엔에스와타미푸드앤베버리지서비스주식회사</t>
+          <t>주식회사지오멕스소프트</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>청송노래산풍력발전주식회사</t>
+          <t>주식회사카카오페이</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>케이에스엠컴포넌트</t>
+          <t>주식회사케이에스엠</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>코웨이(주)</t>
+          <t>주식회사티피솔루션</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>쿠팡로지스틱스서비스</t>
+          <t>지엔에스와타미푸드앤베버리지서비스주식회사</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>큐비콤(주)</t>
+          <t>청송노래산풍력발전주식회사</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>티엔알컴퍼니(주)</t>
+          <t>케이에스엠컴포넌트</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>파킹클라우드</t>
+          <t>코웨이(주)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>프레스토솔루션</t>
+          <t>쿠팡로지스틱스서비스</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>한국미쓰도요</t>
+          <t>큐비콤(주)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>한국미쓰비시전기오토메이션</t>
+          <t>티엔알컴퍼니(주)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>한국수자원조사기술원</t>
+          <t>파킹클라우드</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>한국씰마스타</t>
+          <t>프레스토솔루션</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>한국에스엠씨(주)</t>
+          <t>한국미쓰도요</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>한국자산관리공사</t>
+          <t>한국미쓰비시전기오토메이션</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>한국케이시스검정(주)</t>
+          <t>한국수자원조사기술원</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>한국화낙서비스(주)</t>
+          <t>한국씰마스타</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>한국환경공단</t>
+          <t>한국에스엠씨(주)</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>한양물류</t>
+          <t>한국자산관리공사</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>해암</t>
+          <t>한국케이시스검정(주)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>황두구조안전(주)</t>
+          <t>한국화낙서비스(주)</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>회명산업</t>
+          <t>한국환경공단</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>회명워터젠</t>
+          <t>한양물류</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
+        <is>
+          <t>해암</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>황두구조안전(주)</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>회명산업</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>회명워터젠</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
         <is>
           <t>휴먼텍</t>
         </is>
